--- a/biology/Histoire de la zoologie et de la botanique/Otto_von_Wettstein/Otto_von_Wettstein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_von_Wettstein/Otto_von_Wettstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto von Wettstein Ritter[note 1] von Westersheim est un zoologiste autrichien, né le 7 août 1892 et mort le 10 juillet 1967.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Souffrant d’une tympanite durant son enfance, il devient malentendant. Il étudie d’abord les oiseaux et les mammifères et obtient son doctorat en 1915. Il étudie notamment auprès des zoologistes Karl Grobben et Franz Werner, ainsi que du paléontologue Othenio Abel. Il entre au département herpétologique du muséum de Vienne, le seul à offrir une place vacante.
 Son premier travail est d’étudier la collection rassemblée par Egid Schreibers. Durant la Première Guerre mondiale, il est chargé d’organiser les pêches de Croatie. En 1920, il remplace Friedrich Siebenrock au département d’herpétologie et trouve les collections dans un état chaotique. Grâce à un travail de cinq ans, la collection deviendra l’une des plus riches et des plus renommées d’Europe. La situation financière du muséum est très difficile en 1932, aussi Wettstein multiplie les articles dans la presse grand public et consacre ses royalties à l’achat de spécimens.
